--- a/data/ES + technologies + potable water.xlsx
+++ b/data/ES + technologies + potable water.xlsx
@@ -9,14 +9,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="iSNJll5uDTM3Yvrk/haXON/cHFQZYA5lDbLl5659dyc="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="p4QPWZbhN4/Rprztr3KxddVMgdq5dHJBzrZ2B79wxI8="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Authors</t>
   </si>
@@ -82,21 +82,6 @@
   </si>
   <si>
     <t>Microbial technologies have provided solutions to key challenges in our daily lives for over a century. In the debate about the ongoing climate change and the need for planetary sustainability, microbial ecology and microbial technologies are rarely considered. Nonetheless, they can bring forward vital solutions to decrease and even prevent long-term effects of climate change. The key to the success of microbial technologies is an effective, target-oriented microbiome management. Here, we highlight how microbial technologies can play a key role in both natural, i.e. soils and aquatic ecosystems, and semi-natural or even entirely human-made, engineered ecosystems, e.g. (waste) water treatment and bodily systems. First, we set forward fundamental guidelines for effective soil microbial resource management, especially with respect to nutrient loss and greenhouse gas abatement. Next, we focus on closing the water circle, integrating resource recovery. We also address the essential interaction of the human and animal host with their respective microbiomes. Finally, we set forward some key future potentials, such as microbial protein and the need to overcome microphobia for microbial products and services. Overall, we conclude that by relying on the wisdom of the past, we can tackle the challenges of our current era through microbial technologies.</t>
-  </si>
-  <si>
-    <t>Ibáñez González, José Miguel</t>
-  </si>
-  <si>
-    <t>Background: The Social and Mechanized Organization of COSSBO</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Russell, Rachel</t>
-  </si>
-  <si>
-    <t>Environmental equity and urban sustainability: An analysis of untreated household wastewater in Tijuana, Mexico</t>
   </si>
 </sst>
 </file>
@@ -463,32 +448,16 @@
       </c>
     </row>
     <row r="8" ht="12.75" customHeight="1">
-      <c r="A8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="2">
-        <v>2021.0</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="1"/>
     </row>
     <row r="9" ht="12.75" customHeight="1">
-      <c r="A9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="2">
-        <v>2013.0</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="1"/>
     </row>
     <row r="10" ht="12.75" customHeight="1">
       <c r="A10" s="1"/>
@@ -6417,18 +6386,6 @@
       <c r="B997" s="1"/>
       <c r="C997" s="2"/>
       <c r="D997" s="1"/>
-    </row>
-    <row r="998" ht="12.75" customHeight="1">
-      <c r="A998" s="1"/>
-      <c r="B998" s="1"/>
-      <c r="C998" s="2"/>
-      <c r="D998" s="1"/>
-    </row>
-    <row r="999" ht="12.75" customHeight="1">
-      <c r="A999" s="1"/>
-      <c r="B999" s="1"/>
-      <c r="C999" s="2"/>
-      <c r="D999" s="1"/>
     </row>
   </sheetData>
   <printOptions/>
